--- a/resources/excelfile.xlsx
+++ b/resources/excelfile.xlsx
@@ -2,10 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="credentials" r:id="rId6" sheetId="2"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -67,12 +70,73 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10101010</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>12121212</t>
+  </si>
+  <si>
+    <t>13131313</t>
+  </si>
+  <si>
+    <t>14141414</t>
+  </si>
+  <si>
+    <t>15151515</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -333,15 +397,16 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="17.71"/>
-    <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="16.14"/>
+    <col min="2" max="2" customWidth="true" width="17.71"/>
+    <col min="3" max="3" customWidth="true" width="16.71"/>
+    <col min="4" max="26" customWidth="true" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -351,6 +416,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -359,6 +427,9 @@
       <c r="B2" s="3">
         <v>1.6377742E7</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -367,6 +438,9 @@
       <c r="B3" s="3">
         <v>9569901.0</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -375,6 +449,9 @@
       <c r="B4" s="3">
         <v>9158960.0</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -383,6 +460,9 @@
       <c r="B5" s="3">
         <v>9093507.0</v>
       </c>
+      <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -391,6 +471,9 @@
       <c r="B6" s="3">
         <v>8460415.0</v>
       </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -399,6 +482,9 @@
       <c r="B7" s="3">
         <v>7682300.0</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -407,6 +493,9 @@
       <c r="B8" s="3">
         <v>2973193.0</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -415,6 +504,9 @@
       <c r="B9" s="3">
         <v>2736690.0</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -423,6 +515,9 @@
       <c r="B10" s="3">
         <v>2699700.0</v>
       </c>
+      <c r="C10" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -431,6 +526,9 @@
       <c r="B11" s="3">
         <v>2381741.0</v>
       </c>
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -439,6 +537,9 @@
       <c r="B12" s="3">
         <v>2381741.0</v>
       </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -447,6 +548,9 @@
       <c r="B13" s="3">
         <v>1943945.0</v>
       </c>
+      <c r="C13" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -455,6 +559,9 @@
       <c r="B14" s="3">
         <v>1811569.0</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -463,6 +570,9 @@
       <c r="B15" s="3">
         <v>1765050.0</v>
       </c>
+      <c r="C15" t="s" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -470,6 +580,9 @@
       </c>
       <c r="B16" s="3">
         <v>769632.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1462,4 +1575,28 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="G17:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="17">
+      <c r="G17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>